--- a/Document/05.Test Case/FUFO_Buglist_V1.0.xlsx
+++ b/Document/05.Test Case/FUFO_Buglist_V1.0.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="4620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TotalBug_Report" sheetId="2" r:id="rId1"/>
+    <sheet name="BugList" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BugList!$A$2:$N$42</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="82">
   <si>
     <t>AOP</t>
   </si>
@@ -151,9 +153,6 @@
     <t>Lấy dữ liệu từ sensor gửi về chip không đúng</t>
   </si>
   <si>
-    <t xml:space="preserve">Đã sửa lại hàm fufuReadI2C để lấy lại dữ liệu đúng </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lấy dữ liệu từ bluetooth gửi về chip không đúng
 </t>
   </si>
@@ -223,13 +222,64 @@
   </si>
   <si>
     <t>Do thiết kế nhầm tụ cho thạch anh . Đã bỏ tụ thiết kế sai cho thạch anh</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intergration test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System test </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>UT+ST+AT</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Tong test cass Actual</t>
+  </si>
+  <si>
+    <t>Tong bug Actual</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +295,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D4940"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +334,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF669E86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF0ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -289,11 +382,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -311,18 +632,1423 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0033CC"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FF339966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UT cases number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UT cases Plan</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>UT Cases Actual</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="82645760"/>
+        <c:axId val="82647296"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="82645760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82647296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82647296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82645760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IT cases number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IT cases Plan</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IT cases Actual</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="82668928"/>
+        <c:axId val="82678912"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="82668928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82678912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82678912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82668928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ST cases number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ST cases Plan</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ST cases Actual</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$L$5:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="82708736"/>
+        <c:axId val="82710528"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="82708736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82710528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82710528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82708736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Test case Density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test case Density</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$Q$5:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bug Density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>AOP</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FUFO</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>AOC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBug_Report!$R$5:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,31 +2338,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="B1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="1" customWidth="1"/>
+    <col min="19" max="257" width="9.140625" style="1"/>
+    <col min="258" max="258" width="10.7109375" style="1" customWidth="1"/>
+    <col min="259" max="270" width="9.140625" style="1"/>
+    <col min="271" max="272" width="9.140625" style="1" customWidth="1"/>
+    <col min="273" max="273" width="22.140625" style="1" customWidth="1"/>
+    <col min="274" max="274" width="22" style="1" customWidth="1"/>
+    <col min="275" max="513" width="9.140625" style="1"/>
+    <col min="514" max="514" width="10.7109375" style="1" customWidth="1"/>
+    <col min="515" max="526" width="9.140625" style="1"/>
+    <col min="527" max="528" width="9.140625" style="1" customWidth="1"/>
+    <col min="529" max="529" width="22.140625" style="1" customWidth="1"/>
+    <col min="530" max="530" width="22" style="1" customWidth="1"/>
+    <col min="531" max="769" width="9.140625" style="1"/>
+    <col min="770" max="770" width="10.7109375" style="1" customWidth="1"/>
+    <col min="771" max="782" width="9.140625" style="1"/>
+    <col min="783" max="784" width="9.140625" style="1" customWidth="1"/>
+    <col min="785" max="785" width="22.140625" style="1" customWidth="1"/>
+    <col min="786" max="786" width="22" style="1" customWidth="1"/>
+    <col min="787" max="1025" width="9.140625" style="1"/>
+    <col min="1026" max="1026" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1027" max="1038" width="9.140625" style="1"/>
+    <col min="1039" max="1040" width="9.140625" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="22.140625" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="22" style="1" customWidth="1"/>
+    <col min="1043" max="1281" width="9.140625" style="1"/>
+    <col min="1282" max="1282" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1283" max="1294" width="9.140625" style="1"/>
+    <col min="1295" max="1296" width="9.140625" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="22.140625" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="22" style="1" customWidth="1"/>
+    <col min="1299" max="1537" width="9.140625" style="1"/>
+    <col min="1538" max="1538" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1539" max="1550" width="9.140625" style="1"/>
+    <col min="1551" max="1552" width="9.140625" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="22.140625" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="22" style="1" customWidth="1"/>
+    <col min="1555" max="1793" width="9.140625" style="1"/>
+    <col min="1794" max="1794" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1795" max="1806" width="9.140625" style="1"/>
+    <col min="1807" max="1808" width="9.140625" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="22.140625" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="22" style="1" customWidth="1"/>
+    <col min="1811" max="2049" width="9.140625" style="1"/>
+    <col min="2050" max="2050" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2051" max="2062" width="9.140625" style="1"/>
+    <col min="2063" max="2064" width="9.140625" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="22.140625" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="22" style="1" customWidth="1"/>
+    <col min="2067" max="2305" width="9.140625" style="1"/>
+    <col min="2306" max="2306" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2307" max="2318" width="9.140625" style="1"/>
+    <col min="2319" max="2320" width="9.140625" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="22.140625" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="22" style="1" customWidth="1"/>
+    <col min="2323" max="2561" width="9.140625" style="1"/>
+    <col min="2562" max="2562" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2563" max="2574" width="9.140625" style="1"/>
+    <col min="2575" max="2576" width="9.140625" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="22.140625" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="22" style="1" customWidth="1"/>
+    <col min="2579" max="2817" width="9.140625" style="1"/>
+    <col min="2818" max="2818" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2819" max="2830" width="9.140625" style="1"/>
+    <col min="2831" max="2832" width="9.140625" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="22.140625" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="22" style="1" customWidth="1"/>
+    <col min="2835" max="3073" width="9.140625" style="1"/>
+    <col min="3074" max="3074" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3075" max="3086" width="9.140625" style="1"/>
+    <col min="3087" max="3088" width="9.140625" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="22.140625" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="22" style="1" customWidth="1"/>
+    <col min="3091" max="3329" width="9.140625" style="1"/>
+    <col min="3330" max="3330" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3331" max="3342" width="9.140625" style="1"/>
+    <col min="3343" max="3344" width="9.140625" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="22.140625" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="22" style="1" customWidth="1"/>
+    <col min="3347" max="3585" width="9.140625" style="1"/>
+    <col min="3586" max="3586" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3587" max="3598" width="9.140625" style="1"/>
+    <col min="3599" max="3600" width="9.140625" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="22.140625" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="22" style="1" customWidth="1"/>
+    <col min="3603" max="3841" width="9.140625" style="1"/>
+    <col min="3842" max="3842" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3843" max="3854" width="9.140625" style="1"/>
+    <col min="3855" max="3856" width="9.140625" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="22.140625" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="22" style="1" customWidth="1"/>
+    <col min="3859" max="4097" width="9.140625" style="1"/>
+    <col min="4098" max="4098" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4099" max="4110" width="9.140625" style="1"/>
+    <col min="4111" max="4112" width="9.140625" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="22.140625" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="22" style="1" customWidth="1"/>
+    <col min="4115" max="4353" width="9.140625" style="1"/>
+    <col min="4354" max="4354" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4355" max="4366" width="9.140625" style="1"/>
+    <col min="4367" max="4368" width="9.140625" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="22.140625" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="22" style="1" customWidth="1"/>
+    <col min="4371" max="4609" width="9.140625" style="1"/>
+    <col min="4610" max="4610" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4611" max="4622" width="9.140625" style="1"/>
+    <col min="4623" max="4624" width="9.140625" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="22.140625" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="22" style="1" customWidth="1"/>
+    <col min="4627" max="4865" width="9.140625" style="1"/>
+    <col min="4866" max="4866" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4867" max="4878" width="9.140625" style="1"/>
+    <col min="4879" max="4880" width="9.140625" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="22.140625" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="22" style="1" customWidth="1"/>
+    <col min="4883" max="5121" width="9.140625" style="1"/>
+    <col min="5122" max="5122" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5123" max="5134" width="9.140625" style="1"/>
+    <col min="5135" max="5136" width="9.140625" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="22.140625" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="22" style="1" customWidth="1"/>
+    <col min="5139" max="5377" width="9.140625" style="1"/>
+    <col min="5378" max="5378" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5379" max="5390" width="9.140625" style="1"/>
+    <col min="5391" max="5392" width="9.140625" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="22.140625" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="22" style="1" customWidth="1"/>
+    <col min="5395" max="5633" width="9.140625" style="1"/>
+    <col min="5634" max="5634" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5635" max="5646" width="9.140625" style="1"/>
+    <col min="5647" max="5648" width="9.140625" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="22.140625" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="22" style="1" customWidth="1"/>
+    <col min="5651" max="5889" width="9.140625" style="1"/>
+    <col min="5890" max="5890" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5891" max="5902" width="9.140625" style="1"/>
+    <col min="5903" max="5904" width="9.140625" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="22.140625" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="22" style="1" customWidth="1"/>
+    <col min="5907" max="6145" width="9.140625" style="1"/>
+    <col min="6146" max="6146" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6147" max="6158" width="9.140625" style="1"/>
+    <col min="6159" max="6160" width="9.140625" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="22.140625" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="22" style="1" customWidth="1"/>
+    <col min="6163" max="6401" width="9.140625" style="1"/>
+    <col min="6402" max="6402" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6403" max="6414" width="9.140625" style="1"/>
+    <col min="6415" max="6416" width="9.140625" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="22.140625" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="22" style="1" customWidth="1"/>
+    <col min="6419" max="6657" width="9.140625" style="1"/>
+    <col min="6658" max="6658" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6659" max="6670" width="9.140625" style="1"/>
+    <col min="6671" max="6672" width="9.140625" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="22.140625" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="22" style="1" customWidth="1"/>
+    <col min="6675" max="6913" width="9.140625" style="1"/>
+    <col min="6914" max="6914" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6915" max="6926" width="9.140625" style="1"/>
+    <col min="6927" max="6928" width="9.140625" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="22.140625" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="22" style="1" customWidth="1"/>
+    <col min="6931" max="7169" width="9.140625" style="1"/>
+    <col min="7170" max="7170" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7171" max="7182" width="9.140625" style="1"/>
+    <col min="7183" max="7184" width="9.140625" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="22.140625" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="22" style="1" customWidth="1"/>
+    <col min="7187" max="7425" width="9.140625" style="1"/>
+    <col min="7426" max="7426" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7427" max="7438" width="9.140625" style="1"/>
+    <col min="7439" max="7440" width="9.140625" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="22.140625" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="22" style="1" customWidth="1"/>
+    <col min="7443" max="7681" width="9.140625" style="1"/>
+    <col min="7682" max="7682" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7683" max="7694" width="9.140625" style="1"/>
+    <col min="7695" max="7696" width="9.140625" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="22.140625" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="22" style="1" customWidth="1"/>
+    <col min="7699" max="7937" width="9.140625" style="1"/>
+    <col min="7938" max="7938" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7939" max="7950" width="9.140625" style="1"/>
+    <col min="7951" max="7952" width="9.140625" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="22.140625" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="22" style="1" customWidth="1"/>
+    <col min="7955" max="8193" width="9.140625" style="1"/>
+    <col min="8194" max="8194" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8195" max="8206" width="9.140625" style="1"/>
+    <col min="8207" max="8208" width="9.140625" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="22.140625" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="22" style="1" customWidth="1"/>
+    <col min="8211" max="8449" width="9.140625" style="1"/>
+    <col min="8450" max="8450" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8451" max="8462" width="9.140625" style="1"/>
+    <col min="8463" max="8464" width="9.140625" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="22.140625" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="22" style="1" customWidth="1"/>
+    <col min="8467" max="8705" width="9.140625" style="1"/>
+    <col min="8706" max="8706" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8707" max="8718" width="9.140625" style="1"/>
+    <col min="8719" max="8720" width="9.140625" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="22.140625" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="22" style="1" customWidth="1"/>
+    <col min="8723" max="8961" width="9.140625" style="1"/>
+    <col min="8962" max="8962" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8963" max="8974" width="9.140625" style="1"/>
+    <col min="8975" max="8976" width="9.140625" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="22.140625" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="22" style="1" customWidth="1"/>
+    <col min="8979" max="9217" width="9.140625" style="1"/>
+    <col min="9218" max="9218" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9219" max="9230" width="9.140625" style="1"/>
+    <col min="9231" max="9232" width="9.140625" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="22.140625" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="22" style="1" customWidth="1"/>
+    <col min="9235" max="9473" width="9.140625" style="1"/>
+    <col min="9474" max="9474" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9475" max="9486" width="9.140625" style="1"/>
+    <col min="9487" max="9488" width="9.140625" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="22.140625" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="22" style="1" customWidth="1"/>
+    <col min="9491" max="9729" width="9.140625" style="1"/>
+    <col min="9730" max="9730" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9731" max="9742" width="9.140625" style="1"/>
+    <col min="9743" max="9744" width="9.140625" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="22.140625" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="22" style="1" customWidth="1"/>
+    <col min="9747" max="9985" width="9.140625" style="1"/>
+    <col min="9986" max="9986" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9987" max="9998" width="9.140625" style="1"/>
+    <col min="9999" max="10000" width="9.140625" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="22.140625" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="22" style="1" customWidth="1"/>
+    <col min="10003" max="10241" width="9.140625" style="1"/>
+    <col min="10242" max="10242" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10243" max="10254" width="9.140625" style="1"/>
+    <col min="10255" max="10256" width="9.140625" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="22.140625" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="22" style="1" customWidth="1"/>
+    <col min="10259" max="10497" width="9.140625" style="1"/>
+    <col min="10498" max="10498" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10499" max="10510" width="9.140625" style="1"/>
+    <col min="10511" max="10512" width="9.140625" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="22.140625" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="22" style="1" customWidth="1"/>
+    <col min="10515" max="10753" width="9.140625" style="1"/>
+    <col min="10754" max="10754" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10755" max="10766" width="9.140625" style="1"/>
+    <col min="10767" max="10768" width="9.140625" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="22.140625" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="22" style="1" customWidth="1"/>
+    <col min="10771" max="11009" width="9.140625" style="1"/>
+    <col min="11010" max="11010" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11011" max="11022" width="9.140625" style="1"/>
+    <col min="11023" max="11024" width="9.140625" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="22.140625" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="22" style="1" customWidth="1"/>
+    <col min="11027" max="11265" width="9.140625" style="1"/>
+    <col min="11266" max="11266" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11267" max="11278" width="9.140625" style="1"/>
+    <col min="11279" max="11280" width="9.140625" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="22.140625" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="22" style="1" customWidth="1"/>
+    <col min="11283" max="11521" width="9.140625" style="1"/>
+    <col min="11522" max="11522" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11523" max="11534" width="9.140625" style="1"/>
+    <col min="11535" max="11536" width="9.140625" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="22.140625" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="22" style="1" customWidth="1"/>
+    <col min="11539" max="11777" width="9.140625" style="1"/>
+    <col min="11778" max="11778" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11779" max="11790" width="9.140625" style="1"/>
+    <col min="11791" max="11792" width="9.140625" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="22.140625" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="22" style="1" customWidth="1"/>
+    <col min="11795" max="12033" width="9.140625" style="1"/>
+    <col min="12034" max="12034" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12035" max="12046" width="9.140625" style="1"/>
+    <col min="12047" max="12048" width="9.140625" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="22.140625" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="22" style="1" customWidth="1"/>
+    <col min="12051" max="12289" width="9.140625" style="1"/>
+    <col min="12290" max="12290" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12291" max="12302" width="9.140625" style="1"/>
+    <col min="12303" max="12304" width="9.140625" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="22.140625" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="22" style="1" customWidth="1"/>
+    <col min="12307" max="12545" width="9.140625" style="1"/>
+    <col min="12546" max="12546" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12547" max="12558" width="9.140625" style="1"/>
+    <col min="12559" max="12560" width="9.140625" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="22.140625" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="22" style="1" customWidth="1"/>
+    <col min="12563" max="12801" width="9.140625" style="1"/>
+    <col min="12802" max="12802" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12803" max="12814" width="9.140625" style="1"/>
+    <col min="12815" max="12816" width="9.140625" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="22.140625" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="22" style="1" customWidth="1"/>
+    <col min="12819" max="13057" width="9.140625" style="1"/>
+    <col min="13058" max="13058" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13059" max="13070" width="9.140625" style="1"/>
+    <col min="13071" max="13072" width="9.140625" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="22.140625" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="22" style="1" customWidth="1"/>
+    <col min="13075" max="13313" width="9.140625" style="1"/>
+    <col min="13314" max="13314" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13315" max="13326" width="9.140625" style="1"/>
+    <col min="13327" max="13328" width="9.140625" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="22.140625" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="22" style="1" customWidth="1"/>
+    <col min="13331" max="13569" width="9.140625" style="1"/>
+    <col min="13570" max="13570" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13571" max="13582" width="9.140625" style="1"/>
+    <col min="13583" max="13584" width="9.140625" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="22.140625" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="22" style="1" customWidth="1"/>
+    <col min="13587" max="13825" width="9.140625" style="1"/>
+    <col min="13826" max="13826" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13827" max="13838" width="9.140625" style="1"/>
+    <col min="13839" max="13840" width="9.140625" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="22.140625" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="22" style="1" customWidth="1"/>
+    <col min="13843" max="14081" width="9.140625" style="1"/>
+    <col min="14082" max="14082" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14083" max="14094" width="9.140625" style="1"/>
+    <col min="14095" max="14096" width="9.140625" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="22.140625" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="22" style="1" customWidth="1"/>
+    <col min="14099" max="14337" width="9.140625" style="1"/>
+    <col min="14338" max="14338" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14339" max="14350" width="9.140625" style="1"/>
+    <col min="14351" max="14352" width="9.140625" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="22.140625" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="22" style="1" customWidth="1"/>
+    <col min="14355" max="14593" width="9.140625" style="1"/>
+    <col min="14594" max="14594" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14595" max="14606" width="9.140625" style="1"/>
+    <col min="14607" max="14608" width="9.140625" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="22.140625" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="22" style="1" customWidth="1"/>
+    <col min="14611" max="14849" width="9.140625" style="1"/>
+    <col min="14850" max="14850" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14851" max="14862" width="9.140625" style="1"/>
+    <col min="14863" max="14864" width="9.140625" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="22.140625" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="22" style="1" customWidth="1"/>
+    <col min="14867" max="15105" width="9.140625" style="1"/>
+    <col min="15106" max="15106" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15107" max="15118" width="9.140625" style="1"/>
+    <col min="15119" max="15120" width="9.140625" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="22.140625" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="22" style="1" customWidth="1"/>
+    <col min="15123" max="15361" width="9.140625" style="1"/>
+    <col min="15362" max="15362" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15363" max="15374" width="9.140625" style="1"/>
+    <col min="15375" max="15376" width="9.140625" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="22.140625" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="22" style="1" customWidth="1"/>
+    <col min="15379" max="15617" width="9.140625" style="1"/>
+    <col min="15618" max="15618" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15619" max="15630" width="9.140625" style="1"/>
+    <col min="15631" max="15632" width="9.140625" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="22.140625" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="22" style="1" customWidth="1"/>
+    <col min="15635" max="15873" width="9.140625" style="1"/>
+    <col min="15874" max="15874" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15875" max="15886" width="9.140625" style="1"/>
+    <col min="15887" max="15888" width="9.140625" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="22.140625" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="22" style="1" customWidth="1"/>
+    <col min="15891" max="16129" width="9.140625" style="1"/>
+    <col min="16130" max="16130" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16131" max="16142" width="9.140625" style="1"/>
+    <col min="16143" max="16144" width="9.140625" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="22.140625" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="22" style="1" customWidth="1"/>
+    <col min="16147" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="23"/>
+      <c r="Q3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>58</v>
+      </c>
+      <c r="E5" s="11">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11">
+        <v>40</v>
+      </c>
+      <c r="H5" s="11">
+        <v>53</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
+        <v>15</v>
+      </c>
+      <c r="L5" s="11">
+        <v>17</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+      <c r="N5" s="20">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>SUM(D5,H5,L5)</f>
+        <v>128</v>
+      </c>
+      <c r="R5" s="13">
+        <f>SUM(F5,J5,N5)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10">
+        <v>27</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10">
+        <v>5</v>
+      </c>
+      <c r="L6" s="10">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>SUM(D6,H6,L6)</f>
+        <v>59</v>
+      </c>
+      <c r="R6" s="13">
+        <f>SUM(F6,J6,N6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="20">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11">
+        <v>36</v>
+      </c>
+      <c r="H7" s="11">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="20">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="20">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>SUM(D7,H7,L7)</f>
+        <v>99</v>
+      </c>
+      <c r="R7" s="15">
+        <f>SUM(F7,J7,N7)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -645,8 +3049,9 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -658,34 +3063,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -696,32 +3104,35 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>41117</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>41118</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -732,32 +3143,35 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>41117</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>41118</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -768,32 +3182,35 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>41122</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>41122</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -804,32 +3221,35 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>41123</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>41123</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -840,32 +3260,35 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>41123</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>41123</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -876,32 +3299,35 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>41117</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>41117</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -912,32 +3338,35 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>41117</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>41117</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -948,32 +3377,35 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>41117</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>41117</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -984,32 +3416,35 @@
         <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>41118</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>41117</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -1020,32 +3455,35 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>41118</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>41118</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1056,32 +3494,35 @@
         <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>41118</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>41118</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -1092,30 +3533,33 @@
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>41118</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>41118</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -1126,30 +3570,33 @@
         <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>41118</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>41118</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -1160,32 +3607,35 @@
         <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>41123</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>41118</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -1193,135 +3643,153 @@
         <v>0</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6">
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6">
         <v>41123</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6">
+      <c r="J17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="6">
         <v>41123</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="6">
         <v>41123</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>41123</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>41123</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>41123</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="6">
+        <v>41123</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="6">
+      <c r="K20" s="6">
         <v>41123</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="6">
-        <v>41123</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>19</v>
       </c>
@@ -1329,35 +3797,38 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <v>41124</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="6">
         <v>41124</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -1365,35 +3836,38 @@
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>41124</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="6">
         <v>41124</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1401,35 +3875,38 @@
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>41124</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="6">
         <v>41124</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>22</v>
       </c>
@@ -1437,35 +3914,38 @@
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <v>41124</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="6">
         <v>41124</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>23</v>
       </c>
@@ -1473,35 +3953,38 @@
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>41125</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>41125</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>24</v>
       </c>
@@ -1509,35 +3992,38 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <v>41125</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>41125</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>25</v>
       </c>
@@ -1545,35 +4031,38 @@
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <v>41125</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>41125</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14" s="2" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>26</v>
       </c>
@@ -1581,35 +4070,38 @@
         <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <v>41125</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>41125</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>27</v>
       </c>
@@ -1620,32 +4112,35 @@
         <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <v>41125</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>41118</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>28</v>
       </c>
@@ -1656,32 +4151,35 @@
         <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <v>41125</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>41118</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>29</v>
       </c>
@@ -1692,32 +4190,35 @@
         <v>16</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>41125</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>41122</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>30</v>
       </c>
@@ -1728,32 +4229,35 @@
         <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <v>41129</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>41123</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>31</v>
       </c>
@@ -1764,30 +4268,36 @@
         <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G33" s="6">
-        <v>41129</v>
       </c>
       <c r="H33" s="6">
         <v>41129</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="6">
+        <v>41129</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="6">
+        <f>I33</f>
+        <v>41129</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="M33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>32</v>
       </c>
@@ -1795,33 +4305,39 @@
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="6">
-        <v>41129</v>
       </c>
       <c r="H34" s="6">
         <v>41129</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="6">
+        <v>41129</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="6">
+        <f t="shared" ref="K34:K42" si="0">I34</f>
+        <v>41129</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>33</v>
       </c>
@@ -1829,33 +4345,39 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="6">
-        <v>41129</v>
       </c>
       <c r="H35" s="6">
         <v>41129</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="6">
+        <v>41129</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="6">
+        <f t="shared" si="0"/>
+        <v>41129</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>34</v>
       </c>
@@ -1866,30 +4388,36 @@
         <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G36" s="6">
-        <v>41129</v>
       </c>
       <c r="H36" s="6">
         <v>41129</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="6">
+        <v>41129</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="6">
+        <f t="shared" si="0"/>
+        <v>41129</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>35</v>
       </c>
@@ -1900,30 +4428,36 @@
         <v>31</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G37" s="6">
-        <v>41131</v>
       </c>
       <c r="H37" s="6">
         <v>41131</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>36</v>
       </c>
@@ -1934,30 +4468,36 @@
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G38" s="6">
-        <v>41131</v>
       </c>
       <c r="H38" s="6">
         <v>41131</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>37</v>
       </c>
@@ -1968,30 +4508,36 @@
         <v>16</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G39" s="6">
-        <v>41131</v>
       </c>
       <c r="H39" s="6">
         <v>41131</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>38</v>
       </c>
@@ -2002,30 +4548,36 @@
         <v>16</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G40" s="6">
-        <v>41131</v>
       </c>
       <c r="H40" s="6">
         <v>41131</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>39</v>
       </c>
@@ -2036,30 +4588,36 @@
         <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G41" s="6">
-        <v>41131</v>
       </c>
       <c r="H41" s="6">
         <v>41131</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>40</v>
       </c>
@@ -2070,54 +4628,44 @@
         <v>31</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G42" s="6">
-        <v>41131</v>
       </c>
       <c r="H42" s="6">
         <v>41131</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="6">
+        <v>41131</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="6">
+        <f t="shared" si="0"/>
+        <v>41131</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:N42">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AOC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>